--- a/Dummy data with cleaning example.xlsx
+++ b/Dummy data with cleaning example.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="93">
   <si>
     <t xml:space="preserve">Child_ID</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t xml:space="preserve">Apply nutrient retention factor to vitamins and minerals for Pangas: low fat fish, boiled, steamed, stewed. Assuming 150 g of fish and 200 grams of weight for potato and eggplant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rice (1 plate), Meat (potato, carrot, condiment), Pulse (half bowi)</t>
   </si>
   <si>
     <t xml:space="preserve">Cake, Water (1 glass)</t>
@@ -305,7 +308,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -350,6 +353,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -414,7 +423,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -431,11 +440,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -466,11 +479,11 @@
   </sheetPr>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B56" activeCellId="0" sqref="B56"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.72"/>
@@ -553,8 +566,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="3"/>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -565,13 +580,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -581,17 +596,17 @@
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -599,15 +614,15 @@
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -622,17 +637,17 @@
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="D10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="5"/>
       <c r="F10" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -640,13 +655,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -656,17 +671,17 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -674,15 +689,15 @@
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -690,126 +705,126 @@
         <v>3</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="B16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="5"/>
+      <c r="B17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>25</v>
+      <c r="B18" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>25</v>
+      <c r="B19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="5" t="s">
+      <c r="B21" s="6" t="s">
         <v>44</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="5"/>
+      <c r="B22" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="5"/>
+      <c r="B23" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="5"/>
+      <c r="B24" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="5"/>
+      <c r="B25" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>6</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C27" s="3"/>
     </row>
@@ -818,7 +833,7 @@
         <v>6</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C28" s="3"/>
     </row>
@@ -827,10 +842,10 @@
         <v>6</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -838,7 +853,7 @@
         <v>6</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C30" s="3"/>
     </row>
@@ -847,7 +862,7 @@
         <v>6</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C31" s="3"/>
     </row>
@@ -856,7 +871,7 @@
         <v>6</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C32" s="3"/>
     </row>
@@ -865,7 +880,7 @@
         <v>6</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C33" s="3"/>
     </row>
@@ -878,10 +893,10 @@
         <v>7</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -889,10 +904,10 @@
         <v>7</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -900,7 +915,7 @@
         <v>7</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C37" s="3"/>
     </row>
@@ -909,274 +924,274 @@
         <v>7</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C38" s="3"/>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7" t="n">
+      <c r="A40" s="8" t="n">
         <v>8</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="7" t="n">
+      <c r="A41" s="8" t="n">
         <v>8</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C41" s="3"/>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="7" t="n">
+      <c r="A42" s="8" t="n">
         <v>8</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="7" t="n">
+      <c r="A43" s="8" t="n">
         <v>8</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C43" s="3"/>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="7" t="n">
+      <c r="A44" s="8" t="n">
         <v>8</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C44" s="3"/>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="7"/>
+      <c r="A45" s="8"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="7" t="n">
+      <c r="A46" s="8" t="n">
         <v>9</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="7" t="n">
+      <c r="A47" s="8" t="n">
         <v>9</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C47" s="3"/>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="7" t="n">
+      <c r="A48" s="8" t="n">
         <v>9</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="7" t="n">
+      <c r="A49" s="8" t="n">
         <v>9</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C49" s="3"/>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="7" t="n">
+      <c r="A50" s="8" t="n">
         <v>9</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="7"/>
+      <c r="A51" s="8"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="7" t="n">
+      <c r="A52" s="8" t="n">
         <v>10</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="7" t="n">
+      <c r="A53" s="8" t="n">
         <v>10</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="7" t="n">
+      <c r="A54" s="8" t="n">
         <v>10</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="7" t="n">
+      <c r="A55" s="8" t="n">
         <v>10</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C55" s="3"/>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="7" t="n">
+      <c r="A56" s="8" t="n">
         <v>10</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C56" s="3"/>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="7"/>
+      <c r="A57" s="8"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="7" t="n">
+      <c r="A58" s="8" t="n">
         <v>11</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C58" s="3"/>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="7" t="n">
+      <c r="A59" s="8" t="n">
         <v>11</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="7" t="n">
+      <c r="A60" s="8" t="n">
         <v>11</v>
       </c>
       <c r="B60" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>83</v>
-      </c>
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="7" t="n">
+      <c r="A61" s="8" t="n">
         <v>11</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="7"/>
+      <c r="A62" s="8"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="7" t="n">
+      <c r="A63" s="8" t="n">
         <v>12</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="7" t="n">
+      <c r="A64" s="8" t="n">
         <v>12</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="7" t="n">
+      <c r="A65" s="8" t="n">
         <v>12</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C65" s="3"/>
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="7" t="n">
+      <c r="A66" s="8" t="n">
         <v>12</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="7" t="n">
+      <c r="A67" s="8" t="n">
         <v>12</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
